--- a/Report_data/INV202200008.xlsx
+++ b/Report_data/INV202200008.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>Id de origen</t>
   </si>
@@ -123,6 +123,9 @@
     <t>BienesTransp</t>
   </si>
   <si>
+    <t>Clave STCC</t>
+  </si>
+  <si>
     <t>Mercancia</t>
   </si>
   <si>
@@ -165,7 +168,7 @@
     <t>Pedimento</t>
   </si>
   <si>
-    <t>1231</t>
+    <t>1234</t>
   </si>
   <si>
     <t>EKU9003173C9</t>
@@ -174,7 +177,7 @@
     <t>GIFAN INTERNACIONAL S DE RL DE CV</t>
   </si>
   <si>
-    <t>234</t>
+    <t>214</t>
   </si>
   <si>
     <t>CARRETERA PUENTE DE VIGAS KM 14.5</t>
@@ -204,7 +207,7 @@
     <t>COMERCIAL CITY FRESKO S DE RL DE CV</t>
   </si>
   <si>
-    <t>9876</t>
+    <t>2324</t>
   </si>
   <si>
     <t>AV INSURGENTES SUR</t>
@@ -667,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,34 +824,37 @@
       <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G2" s="3">
-        <v>44882.85928240741</v>
+        <v>44888.93012731482</v>
       </c>
       <c r="H2">
-        <v>532</v>
+        <v>345645</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -857,96 +863,96 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="2">
+        <v>44889</v>
+      </c>
+      <c r="X2" s="3">
+        <v>44889.93012731482</v>
+      </c>
+      <c r="Y2">
+        <v>12321</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" t="s">
         <v>58</v>
       </c>
-      <c r="S2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="2">
-        <v>44882</v>
-      </c>
-      <c r="X2" s="3">
-        <v>44882.85928240741</v>
-      </c>
-      <c r="Y2">
-        <v>234</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
       <c r="AI2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="b">
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="b">
         <v>0</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="b">
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2" t="b">
@@ -955,52 +961,55 @@
       <c r="AR2" t="b">
         <v>0</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="b">
         <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AU2" t="s">
-        <v>72</v>
+      <c r="AU2">
+        <v>0</v>
       </c>
       <c r="AV2" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" t="b">
-        <v>0</v>
+      <c r="AW2" t="s">
+        <v>74</v>
       </c>
       <c r="AX2" t="b">
         <v>0</v>
       </c>
+      <c r="AY2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G3" s="3">
-        <v>44882.85928240741</v>
+        <v>44888.93012731482</v>
       </c>
       <c r="H3">
-        <v>532</v>
+        <v>345645</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1009,96 +1018,96 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="2">
+        <v>44889</v>
+      </c>
+      <c r="X3" s="3">
+        <v>44889.93012731482</v>
+      </c>
+      <c r="Y3">
+        <v>12321</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" t="s">
         <v>58</v>
       </c>
-      <c r="S3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="2">
-        <v>44882</v>
-      </c>
-      <c r="X3" s="3">
-        <v>44882.85928240741</v>
-      </c>
-      <c r="Y3">
-        <v>234</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
       <c r="AI3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="b">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="b">
         <v>0</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="b">
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3" t="b">
@@ -1107,52 +1116,55 @@
       <c r="AR3" t="b">
         <v>0</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="b">
         <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AU3" t="s">
-        <v>72</v>
+      <c r="AU3">
+        <v>0</v>
       </c>
       <c r="AV3" t="s">
         <v>73</v>
       </c>
-      <c r="AW3" t="b">
-        <v>0</v>
+      <c r="AW3" t="s">
+        <v>74</v>
       </c>
       <c r="AX3" t="b">
         <v>0</v>
       </c>
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="G4" s="3">
-        <v>44882.85928240741</v>
+        <v>44888.93012731482</v>
       </c>
       <c r="H4">
-        <v>532</v>
+        <v>345645</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1161,96 +1173,96 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="2">
+        <v>44889</v>
+      </c>
+      <c r="X4" s="3">
+        <v>44889.93012731482</v>
+      </c>
+      <c r="Y4">
+        <v>12321</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="s">
         <v>58</v>
       </c>
-      <c r="S4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="2">
-        <v>44882</v>
-      </c>
-      <c r="X4" s="3">
-        <v>44882.85928240741</v>
-      </c>
-      <c r="Y4">
-        <v>234</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>57</v>
-      </c>
       <c r="AI4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK4" t="b">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="b">
+      <c r="AL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4" t="b">
         <v>0</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="b">
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4" t="b">
@@ -1259,22 +1271,25 @@
       <c r="AR4" t="b">
         <v>0</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="b">
         <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AU4" t="s">
-        <v>72</v>
+      <c r="AU4">
+        <v>0</v>
       </c>
       <c r="AV4" t="s">
         <v>73</v>
       </c>
-      <c r="AW4" t="b">
-        <v>0</v>
+      <c r="AW4" t="s">
+        <v>74</v>
       </c>
       <c r="AX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1293,25 +1308,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1329,52 +1344,52 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
